--- a/autoConditions/train1Block9Test.xlsx
+++ b/autoConditions/train1Block9Test.xlsx
@@ -469,12 +469,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>trainaudio/26_kapako.wav</t>
+          <t>trainaudio/07_pitapi.wav</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pngimages/26_pineapple.png</t>
+          <t>pngimages/07_suitcase.png</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -487,79 +487,67 @@
           <t>pngimages/14_coffee.png</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>(0.5, 0)</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>(-0.5, 0)</t>
-        </is>
+      <c r="E2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>trainaudio/10_tokiti.wav</t>
+          <t>trainaudio/17_kotako.wav</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pngimages/100_bicycle.png</t>
+          <t>pngimages/17_cracker.png</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>trainaudio/05_titopo.wav</t>
+          <t>trainaudio/02_pitito.wav</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>pngimages/05_megaphone.png</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>(0.5, 0)</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>(-0.5, 0)</t>
-        </is>
+          <t>pngimages/02_pallet.png</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>trainaudio/20_tatito.wav</t>
+          <t>trainaudio/21_papika.wav</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pngimages/20_pizza.png</t>
+          <t>pngimages/21_cheese.png</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>trainaudio/06_titoka.wav</t>
+          <t>trainaudio/18_popata.wav</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>pngimages/06_tent.png</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>(0.5, 0)</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>(-0.5, 0)</t>
-        </is>
+          <t>pngimages/18_donut.png</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-0.5</v>
       </c>
     </row>
   </sheetData>

--- a/autoConditions/train1Block9Test.xlsx
+++ b/autoConditions/train1Block9Test.xlsx
@@ -469,22 +469,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>trainaudio/07_pitapi.wav</t>
+          <t>trainingimages/08_tipako</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pngimages/07_suitcase.png</t>
+          <t>pngimages/08_bell.png</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>trainaudio/14_pokoto.wav</t>
+          <t>trainingimages/20_tatito</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>pngimages/14_coffee.png</t>
+          <t>pngimages/20_pizza.png</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -497,22 +497,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>trainaudio/17_kotako.wav</t>
+          <t>trainingimages/06_titoka</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pngimages/17_cracker.png</t>
+          <t>pngimages/06_tent.png</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>trainaudio/02_pitito.wav</t>
+          <t>trainingimages/04_kitoti</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>pngimages/02_pallet.png</t>
+          <t>pngimages/04_ladder.png</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -525,22 +525,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>trainaudio/21_papika.wav</t>
+          <t>trainingimages/26_kapako</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pngimages/21_cheese.png</t>
+          <t>pngimages/26_pineapple.png</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>trainaudio/18_popata.wav</t>
+          <t>trainingimages/12_pokika</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>pngimages/18_donut.png</t>
+          <t>pngimages/12_pie.png</t>
         </is>
       </c>
       <c r="E4" t="n">

--- a/autoConditions/train1Block9Test.xlsx
+++ b/autoConditions/train1Block9Test.xlsx
@@ -469,85 +469,85 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>trainingimages/08_tipako</t>
+          <t>trainingaudio/05_titopo2.wav</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pngimages/08_bell.png</t>
+          <t>pngimages/05_megaphone.png</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>trainingimages/20_tatito</t>
+          <t>trainingaudio/24_takopa1.wav</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>pngimages/20_pizza.png</t>
+          <t>pngimages/24_banana.png</t>
         </is>
       </c>
       <c r="E2" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="F2" t="n">
         <v>0.5</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>trainingimages/06_titoka</t>
+          <t>trainingaudio/04_kitoti2.wav</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pngimages/06_tent.png</t>
+          <t>pngimages/04_ladder.png</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>trainingimages/04_kitoti</t>
+          <t>trainingaudio/23_patoko1.wav</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>pngimages/04_ladder.png</t>
+          <t>pngimages/23_lemon.png</t>
         </is>
       </c>
       <c r="E3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F3" t="n">
         <v>-0.5</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>trainingimages/26_kapako</t>
+          <t>trainingaudio/27_pakapa1.wav</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>pngimages/27_kiwi.png</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>trainingaudio/26_kapako1.wav</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>pngimages/26_pineapple.png</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>trainingimages/12_pokika</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>pngimages/12_pie.png</t>
-        </is>
-      </c>
       <c r="E4" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="F4" t="n">
         <v>0.5</v>
-      </c>
-      <c r="F4" t="n">
-        <v>-0.5</v>
       </c>
     </row>
   </sheetData>
